--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N2">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O2">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P2">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q2">
-        <v>7.130767702062444</v>
+        <v>0.4273625087944444</v>
       </c>
       <c r="R2">
-        <v>64.176909318562</v>
+        <v>3.846262579149999</v>
       </c>
       <c r="S2">
-        <v>0.2279128819626941</v>
+        <v>0.008250895075190763</v>
       </c>
       <c r="T2">
-        <v>0.227912881962694</v>
+        <v>0.008250895075190763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H3">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I3">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J3">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7602199999999999</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N3">
-        <v>2.28066</v>
+        <v>2.202569</v>
       </c>
       <c r="O3">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="P3">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="Q3">
-        <v>7.383585561853332</v>
+        <v>6.631175862154778</v>
       </c>
       <c r="R3">
-        <v>66.45227005667999</v>
+        <v>59.68058275939299</v>
       </c>
       <c r="S3">
-        <v>0.2359934210356351</v>
+        <v>0.1280251195129823</v>
       </c>
       <c r="T3">
-        <v>0.235993421035635</v>
+        <v>0.1280251195129823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.124904999999998</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H4">
-        <v>27.37471499999999</v>
+        <v>27.095897</v>
       </c>
       <c r="I4">
-        <v>0.4358435305594535</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J4">
-        <v>0.4358435305594534</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7341896666666666</v>
+        <v>1.683518666666667</v>
       </c>
       <c r="N4">
-        <v>2.202569</v>
+        <v>5.050556</v>
       </c>
       <c r="O4">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="P4">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="Q4">
-        <v>6.699410960314998</v>
+        <v>15.20548279652578</v>
       </c>
       <c r="R4">
-        <v>60.29469864283499</v>
+        <v>136.849345168732</v>
       </c>
       <c r="S4">
-        <v>0.2141259010549773</v>
+        <v>0.2935653936412481</v>
       </c>
       <c r="T4">
-        <v>0.2141259010549773</v>
+        <v>0.293565393641248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.124904999999998</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H5">
-        <v>27.37471499999999</v>
+        <v>27.095897</v>
       </c>
       <c r="I5">
-        <v>0.4358435305594535</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J5">
-        <v>0.4358435305594534</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7602199999999999</v>
+        <v>0.072253</v>
       </c>
       <c r="N5">
-        <v>2.28066</v>
+        <v>0.216759</v>
       </c>
       <c r="O5">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="P5">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="Q5">
-        <v>6.936935279099997</v>
+        <v>0.6525866153136666</v>
       </c>
       <c r="R5">
-        <v>62.43241751189998</v>
+        <v>5.873279537823</v>
       </c>
       <c r="S5">
-        <v>0.2217176295044762</v>
+        <v>0.01259919524905442</v>
       </c>
       <c r="T5">
-        <v>0.2217176295044761</v>
+        <v>0.01259919524905442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.318184</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H6">
-        <v>0.9545520000000001</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I6">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J6">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N6">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O6">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P6">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q6">
-        <v>0.2336074048986667</v>
+        <v>0.4317600882499999</v>
       </c>
       <c r="R6">
-        <v>2.102466644088</v>
+        <v>3.885840794249999</v>
       </c>
       <c r="S6">
-        <v>0.007466536440793294</v>
+        <v>0.008335797156973645</v>
       </c>
       <c r="T6">
-        <v>0.007466536440793292</v>
+        <v>0.008335797156973643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.318184</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H7">
-        <v>0.9545520000000001</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J7">
-        <v>0.01519779525677573</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,43 +868,43 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7602199999999999</v>
+        <v>0.7341896666666666</v>
       </c>
       <c r="N7">
-        <v>2.28066</v>
+        <v>2.202569</v>
       </c>
       <c r="O7">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="P7">
-        <v>0.5087092361331531</v>
+        <v>0.289361144764849</v>
       </c>
       <c r="Q7">
-        <v>0.24188984048</v>
+        <v>6.699410960314998</v>
       </c>
       <c r="R7">
-        <v>2.17700856432</v>
+        <v>60.29469864283499</v>
       </c>
       <c r="S7">
-        <v>0.007731258815982442</v>
+        <v>0.1293425037565219</v>
       </c>
       <c r="T7">
-        <v>0.007731258815982441</v>
+        <v>0.1293425037565219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.427651</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H8">
-        <v>4.282953</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I8">
-        <v>0.06819056770966213</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J8">
-        <v>0.06819056770966211</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7341896666666666</v>
+        <v>1.683518666666667</v>
       </c>
       <c r="N8">
-        <v>2.202569</v>
+        <v>5.050556</v>
       </c>
       <c r="O8">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="P8">
-        <v>0.4912907638668469</v>
+        <v>0.663513681459685</v>
       </c>
       <c r="Q8">
-        <v>1.048166611806333</v>
+        <v>15.36194789906</v>
       </c>
       <c r="R8">
-        <v>9.433499506257</v>
+        <v>138.25753109154</v>
       </c>
       <c r="S8">
-        <v>0.03350139609859386</v>
+        <v>0.2965861947582683</v>
       </c>
       <c r="T8">
-        <v>0.03350139609859384</v>
+        <v>0.2965861947582683</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.427651</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H9">
-        <v>4.282953</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I9">
-        <v>0.06819056770966213</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J9">
-        <v>0.06819056770966211</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7602199999999999</v>
+        <v>0.072253</v>
       </c>
       <c r="N9">
-        <v>2.28066</v>
+        <v>0.216759</v>
       </c>
       <c r="O9">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="P9">
-        <v>0.5087092361331531</v>
+        <v>0.02847658002000569</v>
       </c>
       <c r="Q9">
-        <v>1.08532884322</v>
+        <v>0.6593017609649998</v>
       </c>
       <c r="R9">
-        <v>9.767959588979998</v>
+        <v>5.933715848684999</v>
       </c>
       <c r="S9">
-        <v>0.03468917161106828</v>
+        <v>0.01272884153538887</v>
       </c>
       <c r="T9">
-        <v>0.03468917161106827</v>
+        <v>0.01272884153538887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.353022</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H10">
-        <v>1.059066</v>
+        <v>0.790705</v>
       </c>
       <c r="I10">
-        <v>0.01686180347577968</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J10">
-        <v>0.01686180347577968</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.7341896666666666</v>
+        <v>0.04731666666666667</v>
       </c>
       <c r="N10">
-        <v>2.202569</v>
+        <v>0.14195</v>
       </c>
       <c r="O10">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="P10">
-        <v>0.4912907638668469</v>
+        <v>0.01864859375546025</v>
       </c>
       <c r="Q10">
-        <v>0.259185104506</v>
+        <v>0.01247117497222222</v>
       </c>
       <c r="R10">
-        <v>2.332665940554</v>
+        <v>0.11224057475</v>
       </c>
       <c r="S10">
-        <v>0.008284048309788456</v>
+        <v>0.0002407753465562965</v>
       </c>
       <c r="T10">
-        <v>0.008284048309788454</v>
+        <v>0.0002407753465562964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2635683333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.790705</v>
+      </c>
+      <c r="I11">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="J11">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.202569</v>
+      </c>
+      <c r="O11">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P11">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q11">
+        <v>0.1935091467938889</v>
+      </c>
+      <c r="R11">
+        <v>1.741582321145</v>
+      </c>
+      <c r="S11">
+        <v>0.003735993760402644</v>
+      </c>
+      <c r="T11">
+        <v>0.003735993760402643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2635683333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.790705</v>
+      </c>
+      <c r="I12">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="J12">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.050556</v>
+      </c>
+      <c r="O12">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P12">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q12">
+        <v>0.4437222091088889</v>
+      </c>
+      <c r="R12">
+        <v>3.99349988198</v>
+      </c>
+      <c r="S12">
+        <v>0.008566744425515903</v>
+      </c>
+      <c r="T12">
+        <v>0.008566744425515901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2635683333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.790705</v>
+      </c>
+      <c r="I13">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="J13">
+        <v>0.01291117977653399</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.072253</v>
+      </c>
+      <c r="N13">
+        <v>0.216759</v>
+      </c>
+      <c r="O13">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P13">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q13">
+        <v>0.01904360278833333</v>
+      </c>
+      <c r="R13">
+        <v>0.171392425095</v>
+      </c>
+      <c r="S13">
+        <v>0.0003676662440591495</v>
+      </c>
+      <c r="T13">
+        <v>0.0003676662440591494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.353022</v>
-      </c>
-      <c r="H11">
-        <v>1.059066</v>
-      </c>
-      <c r="I11">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="J11">
-        <v>0.01686180347577968</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.7602199999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.28066</v>
-      </c>
-      <c r="O11">
-        <v>0.5087092361331531</v>
-      </c>
-      <c r="P11">
-        <v>0.5087092361331531</v>
-      </c>
-      <c r="Q11">
-        <v>0.26837438484</v>
-      </c>
-      <c r="R11">
-        <v>2.41536946356</v>
-      </c>
-      <c r="S11">
-        <v>0.008577755165991229</v>
-      </c>
-      <c r="T11">
-        <v>0.008577755165991227</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.428808</v>
+      </c>
+      <c r="I14">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J14">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04731666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.14195</v>
+      </c>
+      <c r="O14">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="P14">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="Q14">
+        <v>0.08562436617777777</v>
+      </c>
+      <c r="R14">
+        <v>0.7706192956</v>
+      </c>
+      <c r="S14">
+        <v>0.001653110992832465</v>
+      </c>
+      <c r="T14">
+        <v>0.001653110992832465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.428808</v>
+      </c>
+      <c r="I15">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J15">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.202569</v>
+      </c>
+      <c r="O15">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P15">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q15">
+        <v>1.328591578639111</v>
+      </c>
+      <c r="R15">
+        <v>11.957324207752</v>
+      </c>
+      <c r="S15">
+        <v>0.02565051797373731</v>
+      </c>
+      <c r="T15">
+        <v>0.0256505179737373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.428808</v>
+      </c>
+      <c r="I16">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J16">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N16">
+        <v>5.050556</v>
+      </c>
+      <c r="O16">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P16">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q16">
+        <v>3.046499868583112</v>
+      </c>
+      <c r="R16">
+        <v>27.418498817248</v>
+      </c>
+      <c r="S16">
+        <v>0.05881739798179617</v>
+      </c>
+      <c r="T16">
+        <v>0.05881739798179615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.809602666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.428808</v>
+      </c>
+      <c r="I17">
+        <v>0.08864534315615299</v>
+      </c>
+      <c r="J17">
+        <v>0.08864534315615297</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.072253</v>
+      </c>
+      <c r="N17">
+        <v>0.216759</v>
+      </c>
+      <c r="O17">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P17">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q17">
+        <v>0.1307492214746667</v>
+      </c>
+      <c r="R17">
+        <v>1.176742993272</v>
+      </c>
+      <c r="S17">
+        <v>0.002524316207787054</v>
+      </c>
+      <c r="T17">
+        <v>0.002524316207787054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J18">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04731666666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.14195</v>
+      </c>
+      <c r="O18">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="P18">
+        <v>0.01864859375546025</v>
+      </c>
+      <c r="Q18">
+        <v>0.008702497105555556</v>
+      </c>
+      <c r="R18">
+        <v>0.07832247395</v>
+      </c>
+      <c r="S18">
+        <v>0.0001680151839070813</v>
+      </c>
+      <c r="T18">
+        <v>0.0001680151839070813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J19">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7341896666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.202569</v>
+      </c>
+      <c r="O19">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="P19">
+        <v>0.289361144764849</v>
+      </c>
+      <c r="Q19">
+        <v>0.1350324082232222</v>
+      </c>
+      <c r="R19">
+        <v>1.215291674009</v>
+      </c>
+      <c r="S19">
+        <v>0.002607009761204904</v>
+      </c>
+      <c r="T19">
+        <v>0.002607009761204903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J20">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.683518666666667</v>
+      </c>
+      <c r="N20">
+        <v>5.050556</v>
+      </c>
+      <c r="O20">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="P20">
+        <v>0.663513681459685</v>
+      </c>
+      <c r="Q20">
+        <v>0.3096333143462223</v>
+      </c>
+      <c r="R20">
+        <v>2.786699829116</v>
+      </c>
+      <c r="S20">
+        <v>0.005977950652856731</v>
+      </c>
+      <c r="T20">
+        <v>0.005977950652856729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1839203333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.5517610000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.009009536381684918</v>
+      </c>
+      <c r="J21">
+        <v>0.009009536381684917</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.072253</v>
+      </c>
+      <c r="N21">
+        <v>0.216759</v>
+      </c>
+      <c r="O21">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="P21">
+        <v>0.02847658002000569</v>
+      </c>
+      <c r="Q21">
+        <v>0.01328879584433333</v>
+      </c>
+      <c r="R21">
+        <v>0.119599162599</v>
+      </c>
+      <c r="S21">
+        <v>0.0002565607837162031</v>
+      </c>
+      <c r="T21">
+        <v>0.0002565607837162031</v>
       </c>
     </row>
   </sheetData>
